--- a/medicine/Mort/Terramation/Terramation.xlsx
+++ b/medicine/Mort/Terramation/Terramation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,16 +490,18 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La terramation également appelé compostage humain est un processus funéraire au cours duquel des microbes décomposent un cadavre humain en humus. 
 Ce processus peut être réalisé de différentes manières telles que :
-la réduction organique naturelle (NOR)[1],[2], un processus consistant à enfermer les cadavres humains dans des copeaux de bois, de la paille et de l'alfafa jusqu'à ce que des microbes thermophiles décomposent le corps[3]
+la réduction organique naturelle (NOR) un processus consistant à enfermer les cadavres humains dans des copeaux de bois, de la paille et de l'alfafa jusqu'à ce que des microbes thermophiles décomposent le corps
 l'humusation, un processus naturel, établi sur le modèle de la vie de la forêt qui se déroule sur 12 mois.
-Ses partisans affirment que le compostage humain est plus économique et plus respectueux de l'environnement que les méthodes traditionnelles d'élimination des cadavres humains. La crémation utilise des combustibles fossiles et l'enterrement nécessite beaucoup de terres et a une empreinte carbone. En revanche, le compostage humain est un processus naturel qui crée de l'engrais[4].
-Les critiques affirment que le processus est inapproprié pour les corps humains. L'Église catholique, par exemple, a fait valoir qu'il ne confère pas le respect dû aux restes humains[5],[6]. Les interprétations juives orthodoxes de la loi religieuse Halakha s'opposent également au processus en raison du manque de respect approprié pour les morts, la question étant débattue dans d'autres branches du judaïsme[7],[8].
-Katrina Spade, fondatrice de l'Urban Death Project, a promu l'idée du compostage humain par réduction organique naturelle (NOR) et étudié des méthodes pour ce processus. Depuis 2017, l'Urban Death Project opère dans l'État de Washington, aux États-Unis, sous le nom de Recompose[9].
-Aux États-Unis, le compostage humain est légalement autorisé dans six États : Washington[10], le Colorado[11], le Vermont (à partir du 1er janvier 2023)[12], l'Oregon[13], la Californie (en 2027)[14],[15] et New York[16].
+Ses partisans affirment que le compostage humain est plus économique et plus respectueux de l'environnement que les méthodes traditionnelles d'élimination des cadavres humains. La crémation utilise des combustibles fossiles et l'enterrement nécessite beaucoup de terres et a une empreinte carbone. En revanche, le compostage humain est un processus naturel qui crée de l'engrais.
+Les critiques affirment que le processus est inapproprié pour les corps humains. L'Église catholique, par exemple, a fait valoir qu'il ne confère pas le respect dû aux restes humains,. Les interprétations juives orthodoxes de la loi religieuse Halakha s'opposent également au processus en raison du manque de respect approprié pour les morts, la question étant débattue dans d'autres branches du judaïsme,.
+Katrina Spade, fondatrice de l'Urban Death Project, a promu l'idée du compostage humain par réduction organique naturelle (NOR) et étudié des méthodes pour ce processus. Depuis 2017, l'Urban Death Project opère dans l'État de Washington, aux États-Unis, sous le nom de Recompose.
+Aux États-Unis, le compostage humain est légalement autorisé dans six États : Washington, le Colorado, le Vermont (à partir du 1er janvier 2023), l'Oregon, la Californie (en 2027), et New York.
 En France un projet de loi d'expérimentation visant à développer l'humusation (ref) est déposé en 2023 par la députée Elodie Jacquier-Laforge (Modem).
 </t>
         </is>
